--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Pltp-Abca1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Pltp-Abca1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.72626766666667</v>
+        <v>15.94338166666667</v>
       </c>
       <c r="H2">
-        <v>44.178803</v>
+        <v>47.830145</v>
       </c>
       <c r="I2">
-        <v>0.08850173745156496</v>
+        <v>0.09439898960585606</v>
       </c>
       <c r="J2">
-        <v>0.08850173745156498</v>
+        <v>0.09439898960585606</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>28.06266266666667</v>
+        <v>57.353185</v>
       </c>
       <c r="N2">
-        <v>84.187988</v>
+        <v>172.059555</v>
       </c>
       <c r="O2">
-        <v>0.1370919993341719</v>
+        <v>0.2415415519323779</v>
       </c>
       <c r="P2">
-        <v>0.1370919993341719</v>
+        <v>0.2415415519323779</v>
       </c>
       <c r="Q2">
-        <v>413.2582818687071</v>
+        <v>914.4037182539416</v>
       </c>
       <c r="R2">
-        <v>3719.324536818364</v>
+        <v>8229.633464285474</v>
       </c>
       <c r="S2">
-        <v>0.012132880131783</v>
+        <v>0.02280127845024689</v>
       </c>
       <c r="T2">
-        <v>0.01213288013178301</v>
+        <v>0.02280127845024689</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.72626766666667</v>
+        <v>15.94338166666667</v>
       </c>
       <c r="H3">
-        <v>44.178803</v>
+        <v>47.830145</v>
       </c>
       <c r="I3">
-        <v>0.08850173745156496</v>
+        <v>0.09439898960585606</v>
       </c>
       <c r="J3">
-        <v>0.08850173745156498</v>
+        <v>0.09439898960585606</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>123.83899</v>
       </c>
       <c r="O3">
-        <v>0.2016598227127666</v>
+        <v>0.1738483040615689</v>
       </c>
       <c r="P3">
-        <v>0.2016598227127666</v>
+        <v>0.1738483040615689</v>
       </c>
       <c r="Q3">
-        <v>607.8953714365523</v>
+        <v>658.137427594839</v>
       </c>
       <c r="R3">
-        <v>5471.058342928971</v>
+        <v>5923.236848353551</v>
       </c>
       <c r="S3">
-        <v>0.01784724468425441</v>
+        <v>0.01641110424810375</v>
       </c>
       <c r="T3">
-        <v>0.01784724468425441</v>
+        <v>0.01641110424810375</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.72626766666667</v>
+        <v>15.94338166666667</v>
       </c>
       <c r="H4">
-        <v>44.178803</v>
+        <v>47.830145</v>
       </c>
       <c r="I4">
-        <v>0.08850173745156496</v>
+        <v>0.09439898960585606</v>
       </c>
       <c r="J4">
-        <v>0.08850173745156498</v>
+        <v>0.09439898960585606</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.135280666666667</v>
+        <v>17.547551</v>
       </c>
       <c r="N4">
-        <v>24.405842</v>
+        <v>52.642653</v>
       </c>
       <c r="O4">
-        <v>0.03974255418972485</v>
+        <v>0.07390108676880894</v>
       </c>
       <c r="P4">
-        <v>0.03974255418972485</v>
+        <v>0.07390108676880894</v>
       </c>
       <c r="Q4">
-        <v>119.8023206407918</v>
+        <v>279.7673029082984</v>
       </c>
       <c r="R4">
-        <v>1078.220885767126</v>
+        <v>2517.905726174685</v>
       </c>
       <c r="S4">
-        <v>0.003517285096553622</v>
+        <v>0.006976187921750262</v>
       </c>
       <c r="T4">
-        <v>0.003517285096553623</v>
+        <v>0.006976187921750262</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>14.72626766666667</v>
+        <v>15.94338166666667</v>
       </c>
       <c r="H5">
-        <v>44.178803</v>
+        <v>47.830145</v>
       </c>
       <c r="I5">
-        <v>0.08850173745156496</v>
+        <v>0.09439898960585606</v>
       </c>
       <c r="J5">
-        <v>0.08850173745156498</v>
+        <v>0.09439898960585606</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>127.2218856666667</v>
+        <v>121.2660546666667</v>
       </c>
       <c r="N5">
-        <v>381.665657</v>
+        <v>363.798164</v>
       </c>
       <c r="O5">
-        <v>0.6215056237633365</v>
+        <v>0.5107090572372441</v>
       </c>
       <c r="P5">
-        <v>0.6215056237633366</v>
+        <v>0.5107090572372442</v>
       </c>
       <c r="Q5">
-        <v>1873.503541385397</v>
+        <v>1933.390992761531</v>
       </c>
       <c r="R5">
-        <v>16861.53187246857</v>
+        <v>17400.51893485378</v>
       </c>
       <c r="S5">
-        <v>0.05500432753897392</v>
+        <v>0.04821041898575516</v>
       </c>
       <c r="T5">
-        <v>0.05500432753897394</v>
+        <v>0.04821041898575517</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>39.406368</v>
       </c>
       <c r="I6">
-        <v>0.07894129758689368</v>
+        <v>0.07777357403446172</v>
       </c>
       <c r="J6">
-        <v>0.07894129758689368</v>
+        <v>0.07777357403446171</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>28.06266266666667</v>
+        <v>57.353185</v>
       </c>
       <c r="N6">
-        <v>84.187988</v>
+        <v>172.059555</v>
       </c>
       <c r="O6">
-        <v>0.1370919993341719</v>
+        <v>0.2415415519323779</v>
       </c>
       <c r="P6">
-        <v>0.1370919993341719</v>
+        <v>0.2415415519323779</v>
       </c>
       <c r="Q6">
-        <v>368.6158707008427</v>
+        <v>753.36023802736</v>
       </c>
       <c r="R6">
-        <v>3317.542836307584</v>
+        <v>6780.242142246239</v>
       </c>
       <c r="S6">
-        <v>0.0108222203162211</v>
+        <v>0.01878554977161158</v>
       </c>
       <c r="T6">
-        <v>0.0108222203162211</v>
+        <v>0.01878554977161158</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>39.406368</v>
       </c>
       <c r="I7">
-        <v>0.07894129758689368</v>
+        <v>0.07777357403446172</v>
       </c>
       <c r="J7">
-        <v>0.07894129758689368</v>
+        <v>0.07777357403446171</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>123.83899</v>
       </c>
       <c r="O7">
-        <v>0.2016598227127666</v>
+        <v>0.1738483040615689</v>
       </c>
       <c r="P7">
-        <v>0.2016598227127666</v>
+        <v>0.1738483040615689</v>
       </c>
       <c r="Q7">
         <v>542.2272014098133</v>
@@ -883,10 +883,10 @@
         <v>4880.04481268832</v>
       </c>
       <c r="S7">
-        <v>0.01591928807608873</v>
+        <v>0.01352080394669804</v>
       </c>
       <c r="T7">
-        <v>0.01591928807608873</v>
+        <v>0.01352080394669804</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>39.406368</v>
       </c>
       <c r="I8">
-        <v>0.07894129758689368</v>
+        <v>0.07777357403446172</v>
       </c>
       <c r="J8">
-        <v>0.07894129758689368</v>
+        <v>0.07777357403446171</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.135280666666667</v>
+        <v>17.547551</v>
       </c>
       <c r="N8">
-        <v>24.405842</v>
+        <v>52.642653</v>
       </c>
       <c r="O8">
-        <v>0.03974255418972485</v>
+        <v>0.07390108676880894</v>
       </c>
       <c r="P8">
-        <v>0.03974255418972485</v>
+        <v>0.07390108676880894</v>
       </c>
       <c r="Q8">
-        <v>106.8606212446507</v>
+        <v>230.495084068256</v>
       </c>
       <c r="R8">
-        <v>961.745591201856</v>
+        <v>2074.455756614304</v>
       </c>
       <c r="S8">
-        <v>0.003137328797154317</v>
+        <v>0.005747551643041141</v>
       </c>
       <c r="T8">
-        <v>0.003137328797154318</v>
+        <v>0.00574755164304114</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>39.406368</v>
       </c>
       <c r="I9">
-        <v>0.07894129758689368</v>
+        <v>0.07777357403446172</v>
       </c>
       <c r="J9">
-        <v>0.07894129758689368</v>
+        <v>0.07777357403446171</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>127.2218856666667</v>
+        <v>121.2660546666667</v>
       </c>
       <c r="N9">
-        <v>381.665657</v>
+        <v>363.798164</v>
       </c>
       <c r="O9">
-        <v>0.6215056237633365</v>
+        <v>0.5107090572372441</v>
       </c>
       <c r="P9">
-        <v>0.6215056237633366</v>
+        <v>0.5107090572372442</v>
       </c>
       <c r="Q9">
-        <v>1671.117481411531</v>
+        <v>1592.884925367595</v>
       </c>
       <c r="R9">
-        <v>15040.05733270378</v>
+        <v>14335.96432830835</v>
       </c>
       <c r="S9">
-        <v>0.04906246039742953</v>
+        <v>0.03971966867311096</v>
       </c>
       <c r="T9">
-        <v>0.04906246039742954</v>
+        <v>0.03971966867311096</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.165871666666667</v>
+        <v>1.134259333333333</v>
       </c>
       <c r="H10">
-        <v>12.497615</v>
+        <v>3.402778</v>
       </c>
       <c r="I10">
-        <v>0.0250360029333692</v>
+        <v>0.006715823358951466</v>
       </c>
       <c r="J10">
-        <v>0.02503600293336921</v>
+        <v>0.006715823358951466</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>28.06266266666667</v>
+        <v>57.353185</v>
       </c>
       <c r="N10">
-        <v>84.187988</v>
+        <v>172.059555</v>
       </c>
       <c r="O10">
-        <v>0.1370919993341719</v>
+        <v>0.2415415519323779</v>
       </c>
       <c r="P10">
-        <v>0.1370919993341719</v>
+        <v>0.2415415519323779</v>
       </c>
       <c r="Q10">
-        <v>116.9054512942911</v>
+        <v>65.05338538264333</v>
       </c>
       <c r="R10">
-        <v>1052.14906164862</v>
+        <v>585.48046844379</v>
       </c>
       <c r="S10">
-        <v>0.003432235697471777</v>
+        <v>0.001622150396624852</v>
       </c>
       <c r="T10">
-        <v>0.003432235697471778</v>
+        <v>0.001622150396624852</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.165871666666667</v>
+        <v>1.134259333333333</v>
       </c>
       <c r="H11">
-        <v>12.497615</v>
+        <v>3.402778</v>
       </c>
       <c r="I11">
-        <v>0.0250360029333692</v>
+        <v>0.006715823358951466</v>
       </c>
       <c r="J11">
-        <v>0.02503600293336921</v>
+        <v>0.006715823358951466</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>123.83899</v>
       </c>
       <c r="O11">
-        <v>0.2016598227127666</v>
+        <v>0.1738483040615689</v>
       </c>
       <c r="P11">
-        <v>0.2016598227127666</v>
+        <v>0.1738483040615689</v>
       </c>
       <c r="Q11">
-        <v>171.9657798898723</v>
+        <v>46.82184341269112</v>
       </c>
       <c r="R11">
-        <v>1547.69201900885</v>
+        <v>421.3965907142201</v>
       </c>
       <c r="S11">
-        <v>0.005048755912979539</v>
+        <v>0.001167534501330782</v>
       </c>
       <c r="T11">
-        <v>0.005048755912979539</v>
+        <v>0.001167534501330781</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.165871666666667</v>
+        <v>1.134259333333333</v>
       </c>
       <c r="H12">
-        <v>12.497615</v>
+        <v>3.402778</v>
       </c>
       <c r="I12">
-        <v>0.0250360029333692</v>
+        <v>0.006715823358951466</v>
       </c>
       <c r="J12">
-        <v>0.02503600293336921</v>
+        <v>0.006715823358951466</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.135280666666667</v>
+        <v>17.547551</v>
       </c>
       <c r="N12">
-        <v>24.405842</v>
+        <v>52.642653</v>
       </c>
       <c r="O12">
-        <v>0.03974255418972485</v>
+        <v>0.07390108676880894</v>
       </c>
       <c r="P12">
-        <v>0.03974255418972485</v>
+        <v>0.07390108676880894</v>
       </c>
       <c r="Q12">
-        <v>33.89053522964778</v>
+        <v>19.90347349889267</v>
       </c>
       <c r="R12">
-        <v>305.01481706683</v>
+        <v>179.131261490034</v>
       </c>
       <c r="S12">
-        <v>0.0009949947032735357</v>
+        <v>0.0004963066447738662</v>
       </c>
       <c r="T12">
-        <v>0.0009949947032735361</v>
+        <v>0.0004963066447738662</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.165871666666667</v>
+        <v>1.134259333333333</v>
       </c>
       <c r="H13">
-        <v>12.497615</v>
+        <v>3.402778</v>
       </c>
       <c r="I13">
-        <v>0.0250360029333692</v>
+        <v>0.006715823358951466</v>
       </c>
       <c r="J13">
-        <v>0.02503600293336921</v>
+        <v>0.006715823358951466</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>127.2218856666667</v>
+        <v>121.2660546666667</v>
       </c>
       <c r="N13">
-        <v>381.665657</v>
+        <v>363.798164</v>
       </c>
       <c r="O13">
-        <v>0.6215056237633365</v>
+        <v>0.5107090572372441</v>
       </c>
       <c r="P13">
-        <v>0.6215056237633366</v>
+        <v>0.5107090572372442</v>
       </c>
       <c r="Q13">
-        <v>529.9900488786728</v>
+        <v>137.5471543221769</v>
       </c>
       <c r="R13">
-        <v>4769.910439908056</v>
+        <v>1237.924388899592</v>
       </c>
       <c r="S13">
-        <v>0.01556001661964435</v>
+        <v>0.003429831816221965</v>
       </c>
       <c r="T13">
-        <v>0.01556001661964435</v>
+        <v>0.003429831816221966</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>134.3676426666667</v>
+        <v>138.6804656666667</v>
       </c>
       <c r="H14">
-        <v>403.102928</v>
+        <v>416.041397</v>
       </c>
       <c r="I14">
-        <v>0.8075209620281723</v>
+        <v>0.8211116130007308</v>
       </c>
       <c r="J14">
-        <v>0.8075209620281721</v>
+        <v>0.8211116130007308</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>28.06266266666667</v>
+        <v>57.353185</v>
       </c>
       <c r="N14">
-        <v>84.187988</v>
+        <v>172.059555</v>
       </c>
       <c r="O14">
-        <v>0.1370919993341719</v>
+        <v>0.2415415519323779</v>
       </c>
       <c r="P14">
-        <v>0.1370919993341719</v>
+        <v>0.2415415519323779</v>
       </c>
       <c r="Q14">
-        <v>3770.713829469874</v>
+        <v>7953.766403266481</v>
       </c>
       <c r="R14">
-        <v>33936.42446522887</v>
+        <v>71583.89762939833</v>
       </c>
       <c r="S14">
-        <v>0.1107046631886961</v>
+        <v>0.1983325733138946</v>
       </c>
       <c r="T14">
-        <v>0.1107046631886961</v>
+        <v>0.1983325733138946</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>134.3676426666667</v>
+        <v>138.6804656666667</v>
       </c>
       <c r="H15">
-        <v>403.102928</v>
+        <v>416.041397</v>
       </c>
       <c r="I15">
-        <v>0.8075209620281723</v>
+        <v>0.8211116130007308</v>
       </c>
       <c r="J15">
-        <v>0.8075209620281721</v>
+        <v>0.8211116130007308</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>123.83899</v>
       </c>
       <c r="O15">
-        <v>0.2016598227127666</v>
+        <v>0.1738483040615689</v>
       </c>
       <c r="P15">
-        <v>0.2016598227127666</v>
+        <v>0.1738483040615689</v>
       </c>
       <c r="Q15">
-        <v>5546.651052173637</v>
+        <v>5724.682933629892</v>
       </c>
       <c r="R15">
-        <v>49919.85946956273</v>
+        <v>51522.14640266904</v>
       </c>
       <c r="S15">
-        <v>0.162844534039444</v>
+        <v>0.1427488613654364</v>
       </c>
       <c r="T15">
-        <v>0.162844534039444</v>
+        <v>0.1427488613654363</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>134.3676426666667</v>
+        <v>138.6804656666667</v>
       </c>
       <c r="H16">
-        <v>403.102928</v>
+        <v>416.041397</v>
       </c>
       <c r="I16">
-        <v>0.8075209620281723</v>
+        <v>0.8211116130007308</v>
       </c>
       <c r="J16">
-        <v>0.8075209620281721</v>
+        <v>0.8211116130007308</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.135280666666667</v>
+        <v>17.547551</v>
       </c>
       <c r="N16">
-        <v>24.405842</v>
+        <v>52.642653</v>
       </c>
       <c r="O16">
-        <v>0.03974255418972485</v>
+        <v>0.07390108676880894</v>
       </c>
       <c r="P16">
-        <v>0.03974255418972485</v>
+        <v>0.07390108676880894</v>
       </c>
       <c r="Q16">
-        <v>1093.118485611709</v>
+        <v>2433.502543989583</v>
       </c>
       <c r="R16">
-        <v>9838.066370505376</v>
+        <v>21901.52289590624</v>
       </c>
       <c r="S16">
-        <v>0.03209294559274337</v>
+        <v>0.06068104055924367</v>
       </c>
       <c r="T16">
-        <v>0.03209294559274338</v>
+        <v>0.06068104055924367</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>134.3676426666667</v>
+        <v>138.6804656666667</v>
       </c>
       <c r="H17">
-        <v>403.102928</v>
+        <v>416.041397</v>
       </c>
       <c r="I17">
-        <v>0.8075209620281723</v>
+        <v>0.8211116130007308</v>
       </c>
       <c r="J17">
-        <v>0.8075209620281721</v>
+        <v>0.8211116130007308</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>127.2218856666667</v>
+        <v>121.2660546666667</v>
       </c>
       <c r="N17">
-        <v>381.665657</v>
+        <v>363.798164</v>
       </c>
       <c r="O17">
-        <v>0.6215056237633365</v>
+        <v>0.5107090572372441</v>
       </c>
       <c r="P17">
-        <v>0.6215056237633366</v>
+        <v>0.5107090572372442</v>
       </c>
       <c r="Q17">
-        <v>17094.50487263819</v>
+        <v>16817.23293073279</v>
       </c>
       <c r="R17">
-        <v>153850.5438537437</v>
+        <v>151355.0963765951</v>
       </c>
       <c r="S17">
-        <v>0.5018788192072887</v>
+        <v>0.419349137762156</v>
       </c>
       <c r="T17">
-        <v>0.5018788192072888</v>
+        <v>0.4193491377621562</v>
       </c>
     </row>
   </sheetData>
